--- a/data/GRC.xlsx
+++ b/data/GRC.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,7 +445,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>W, SPCorequisite: GRC 101; Graphic Communication Majors and Minors only.</t>
+          <t>GRC 101; Graphic Communication Majors and Minors only.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>W, SP</t>
         </is>
       </c>
     </row>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GRC 101; GRC 201, and Graphic Communication major.</t>
+          <t>GRC 101; GRC 201, and Graphic Communication major.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GRC 101; Graphic Communication majors only.</t>
+          <t>GRC 101; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>W, SU</t>
         </is>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GRC 101; major or minor in GRC.</t>
+          <t>GRC 101; major or minor in GRC.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GRC 211; Graphic Communication majors and minors only.</t>
+          <t>GRC 211; Graphic Communication majors and minors only.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GRC 203.</t>
+          <t>GRC 203.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GRC 203; Graphic Communication majors only.</t>
+          <t>GRC 203; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Junior standing; GRC 203; GRC 301.</t>
+          <t>Junior standing; GRC 203; GRC 301.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GRC 328 and STAT 217; Graphic Communication majors only.</t>
+          <t>GRC 328 and STAT 217; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GRC 318; Graphic Communication majors only.</t>
+          <t>GRC 318; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GRC 211 or GRC 212 and Graphic Communication majors only.</t>
+          <t>GRC 211 or GRC 212 and Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GRC 328.</t>
+          <t>GRC 328.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Completion of GE Area B3; and ART 182 or GRC 301.</t>
+          <t>Completion of GE Area B3; and ART 182 or GRC 301.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GRC 301.</t>
+          <t>GRC 301.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GRC 318 or GRC 218.</t>
+          <t>GRC 318 or GRC 218.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GRC 338; Graphic Communication majors only.</t>
+          <t>GRC 338; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GRC 318; GRC 337; Graphic Communication major or minor.</t>
+          <t>GRC 318; GRC 337; Graphic Communication major or minor.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GRC 301; Graphic Communication majors only.</t>
+          <t>GRC 301; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GRC 101 and GRC 204; Graphic Communication majors only.</t>
+          <t>GRC 101 and GRC 204; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GRC 101; GRC 102 or GRC 172; Graphic Communication majors only.</t>
+          <t>GRC 101; GRC 102 or GRC 172; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graphic Communication major; and GRC 318.</t>
+          <t>Graphic Communication major; and GRC 318.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Junior standing and GRC 328; Graphic Communication majors only.</t>
+          <t>Junior standing and GRC 328; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Senior standing; JOUR 331; JOUR 342; BUS 453; and one of the following: GRC 338, GRC 377, or JOUR 390.</t>
+          <t>Senior standing; JOUR 331; JOUR 342; BUS 453; and one of the GRC 338, GRC 377, or JOUR 390.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GRC 320; Graphic Communication majors only.</t>
+          <t>GRC 320; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GRC 338; Graphic Communication majors only.</t>
+          <t>GRC 338; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1180,12 +1735,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GRC 337; Graphic Communication major. Recommended: GRC 361.</t>
+          <t>GRC 337; Graphic Communication major.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>GRC 361.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Senior standing, GRC 402; Graphic Communication majors only.</t>
+          <t>Senior standing, GRC 402; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Senior standing, GRC 402; Graphic Communication majors only.</t>
+          <t>Senior standing, GRC 402; Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GRC 203; Graphic Communication majors and minors only.</t>
+          <t>GRC 203; Graphic Communication majors and minors only.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GRC 203.</t>
+          <t>GRC 203.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GRC 203.</t>
+          <t>GRC 203.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
+          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
+          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
+          <t>Senior standing; Graphic communication major; completion of GWR; and STAT 217 and consent of instructor.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GRC 101 and GRC 201 and Graphic Communication majors only.</t>
+          <t>GRC 101 and GRC 201 and Graphic Communication majors only.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,7 +2332,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 501.</t>
+          <t>GRC 501.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1559,7 +2369,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 501.</t>
+          <t>GRC 501.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1581,7 +2406,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 501.</t>
+          <t>GRC 501.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GRC 501.</t>
+          <t>GRC 501.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GRC 502.</t>
+          <t>GRC 502.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1647,7 +2517,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 502.</t>
+          <t>GRC 502.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +2554,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 502.</t>
+          <t>GRC 502.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1691,7 +2591,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 502.</t>
+          <t>GRC 502.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1713,7 +2628,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TBDCorequisite: GRC 530.</t>
+          <t>GRC 530.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GRC 560.</t>
+          <t>GRC 560.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
